--- a/ANN Tmin/Data Collection.xlsx
+++ b/ANN Tmin/Data Collection.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08CE644-87AA-D442-8D15-1DB982738F0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E54A456-FD97-6A40-8F79-C1456933485D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3601,7 +3601,7 @@
         <v>595</v>
       </c>
       <c r="B164" s="8">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C164" s="20">
         <v>0.1</v>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B379">
         <f t="shared" ref="B379:E379" si="0">MAX(B2:B377)</f>
-        <v>70</v>
+        <v>39.841505464321102</v>
       </c>
       <c r="C379">
         <f t="shared" si="0"/>

--- a/ANN Tmin/Data Collection.xlsx
+++ b/ANN Tmin/Data Collection.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E54A456-FD97-6A40-8F79-C1456933485D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F029F996-ED53-0D46-B63B-EF8328DA7AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30260" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="80">
   <si>
     <t xml:space="preserve">Material </t>
   </si>
@@ -38,16 +38,7 @@
     <t>Stainless steel</t>
   </si>
   <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Zr</t>
-  </si>
-  <si>
     <t>Zirconium</t>
-  </si>
-  <si>
-    <t>zirconium</t>
   </si>
   <si>
     <r>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">Platnium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brass </t>
   </si>
   <si>
     <t>316 SS</t>
@@ -291,6 +279,15 @@
   </si>
   <si>
     <t>System pressure (Mpa)</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brass </t>
+  </si>
+  <si>
+    <t>Material Number</t>
   </si>
 </sst>
 </file>
@@ -810,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:F379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D377" sqref="D377"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,26 +820,30 @@
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>279.43661971830898</v>
       </c>
@@ -858,8 +859,11 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>389.85915492957702</v>
       </c>
@@ -875,8 +879,11 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>547.60563380281599</v>
       </c>
@@ -892,8 +899,11 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>671.54929577464702</v>
       </c>
@@ -909,8 +919,11 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>727.88732394366104</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>275</v>
       </c>
@@ -943,8 +959,11 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>275</v>
       </c>
@@ -955,13 +974,16 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>295</v>
       </c>
@@ -972,13 +994,16 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>323.86363636363598</v>
       </c>
@@ -989,13 +1014,16 @@
         <v>0.1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>551.36363636363603</v>
       </c>
@@ -1006,13 +1034,16 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>330.06754541281401</v>
       </c>
@@ -1023,13 +1054,16 @@
         <v>0.1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>493.189717358515</v>
       </c>
@@ -1040,13 +1074,16 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>434.59243229064202</v>
       </c>
@@ -1057,13 +1094,16 @@
         <v>0.1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>596.130893829103</v>
       </c>
@@ -1074,13 +1114,16 @@
         <v>0.1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>433.03167420814401</v>
       </c>
@@ -1091,13 +1134,16 @@
         <v>0.1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>624.66063348416196</v>
       </c>
@@ -1108,13 +1154,16 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>326.87606860718</v>
       </c>
@@ -1125,13 +1174,16 @@
         <v>9.8874296435271999E-2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>411.809279358357</v>
       </c>
@@ -1142,13 +1194,16 @@
         <v>0.17204502814258901</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>430.82892717038999</v>
       </c>
@@ -1159,13 +1214,16 @@
         <v>0.20919324577861101</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>453.779801400265</v>
       </c>
@@ -1176,13 +1234,16 @@
         <v>0.210318949343339</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>469.80422908441898</v>
       </c>
@@ -1193,13 +1254,16 @@
         <v>0.246341463414634</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>476.87294858621402</v>
       </c>
@@ -1210,13 +1274,16 @@
         <v>0.29699812382739199</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>493.83712658549001</v>
       </c>
@@ -1227,13 +1294,16 @@
         <v>0.29812382739212001</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>490.86249859599002</v>
       </c>
@@ -1244,13 +1314,16 @@
         <v>0.30938086303939899</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>511.95446433400002</v>
       </c>
@@ -1261,13 +1334,16 @@
         <v>0.39268292682926798</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>514.96653257509797</v>
       </c>
@@ -1278,13 +1354,16 @@
         <v>0.40393996247654701</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>515.98865144373701</v>
       </c>
@@ -1295,13 +1374,16 @@
         <v>0.41857410881801099</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>523.99337723549502</v>
       </c>
@@ -1312,13 +1394,16 @@
         <v>0.43208255159474601</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>549.05775366810406</v>
       </c>
@@ -1329,13 +1414,16 @@
         <v>0.50412757973733502</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>548.07681907622396</v>
       </c>
@@ -1346,13 +1434,16 @@
         <v>0.51425891181988703</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>561.06109833057997</v>
       </c>
@@ -1363,13 +1454,16 @@
         <v>0.52213883677298301</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>554.12341970937996</v>
       </c>
@@ -1380,13 +1474,16 @@
         <v>0.55028142589118201</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>570.20962380867195</v>
       </c>
@@ -1397,13 +1494,16 @@
         <v>0.62345215759849903</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>328.29736211031098</v>
       </c>
@@ -1414,13 +1514,16 @@
         <v>0.1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>341.48681055155799</v>
       </c>
@@ -1431,13 +1534,16 @@
         <v>0.1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>425.419664268585</v>
       </c>
@@ -1448,13 +1554,16 @@
         <v>0.1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>487.76978417266099</v>
       </c>
@@ -1465,13 +1574,16 @@
         <v>0.1</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>530.93525179856101</v>
       </c>
@@ -1482,13 +1594,16 @@
         <v>0.1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>564.50839328537097</v>
       </c>
@@ -1499,13 +1614,16 @@
         <v>0.1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F40" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>616.067146282973</v>
       </c>
@@ -1516,13 +1634,16 @@
         <v>0.1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="7">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>322.09629999999999</v>
       </c>
@@ -1533,13 +1654,16 @@
         <v>1.954364</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>320.34500000000003</v>
       </c>
@@ -1550,13 +1674,16 @@
         <v>1.8467720000000001</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>316.8424</v>
       </c>
@@ -1567,13 +1694,16 @@
         <v>1.752664</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>313.33980000000003</v>
       </c>
@@ -1584,13 +1714,16 @@
         <v>1.6585570000000001</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F45" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>306.33449999999999</v>
       </c>
@@ -1601,13 +1734,16 @@
         <v>1.5645119999999999</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>301.95620000000002</v>
       </c>
@@ -1618,13 +1754,16 @@
         <v>1.452483</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E47" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>296.70229999999998</v>
       </c>
@@ -1635,13 +1774,16 @@
         <v>1.367375</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F48" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>293.19959999999998</v>
       </c>
@@ -1652,13 +1794,16 @@
         <v>1.268783</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>293.19959999999998</v>
       </c>
@@ -1669,13 +1814,16 @@
         <v>1.170129</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E50" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>283.56740000000002</v>
       </c>
@@ -1686,13 +1834,16 @@
         <v>1.0671619999999999</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>286.19439999999997</v>
       </c>
@@ -1703,13 +1854,16 @@
         <v>0.96846100000000002</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E52" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>277.43779999999998</v>
       </c>
@@ -1720,13 +1874,16 @@
         <v>0.865479</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>268.68130000000002</v>
       </c>
@@ -1737,13 +1894,16 @@
         <v>0.79837100000000005</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F54" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>258.17340000000002</v>
       </c>
@@ -1754,13 +1914,16 @@
         <v>0.66403100000000004</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>246.78980000000001</v>
       </c>
@@ -1771,13 +1934,16 @@
         <v>0.57903300000000002</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F56" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>238.0333</v>
       </c>
@@ -1788,13 +1954,16 @@
         <v>0.476051</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F57" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>233.655</v>
       </c>
@@ -1805,13 +1974,16 @@
         <v>0.40438099999999999</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F58" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>233.655</v>
       </c>
@@ -1822,13 +1994,16 @@
         <v>0.283304</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E59" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F59" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>224.02279999999999</v>
       </c>
@@ -1839,13 +2014,16 @@
         <v>0.189307</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>223.14709999999999</v>
       </c>
@@ -1856,13 +2034,16 @@
         <v>0.10860499999999999</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F61" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>213.51490000000001</v>
       </c>
@@ -1873,13 +2054,16 @@
         <v>3.2544999999999998E-2</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F62" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>218.99850000000001</v>
       </c>
@@ -1890,13 +2074,16 @@
         <v>0.10087699999999999</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F63" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>222.94890000000001</v>
       </c>
@@ -1907,13 +2094,16 @@
         <v>0.19298199999999999</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E64" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>231.24369999999999</v>
       </c>
@@ -1924,13 +2114,16 @@
         <v>0.29824600000000001</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E65" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>231.84549999999999</v>
       </c>
@@ -1941,13 +2134,16 @@
         <v>0.40789500000000001</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E66" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>237.2816</v>
       </c>
@@ -1958,13 +2154,16 @@
         <v>0.5</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F67" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>247.25149999999999</v>
       </c>
@@ -1975,13 +2174,16 @@
         <v>0.59210499999999999</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>257.62880000000001</v>
       </c>
@@ -1992,13 +2194,16 @@
         <v>0.67982500000000001</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E69" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F69" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>268.7149</v>
       </c>
@@ -2009,13 +2214,16 @@
         <v>0.78947400000000001</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F70" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>276.5145</v>
       </c>
@@ -2026,13 +2234,16 @@
         <v>0.881579</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E71" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>285.92239999999998</v>
       </c>
@@ -2043,13 +2254,16 @@
         <v>0.97806999999999999</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E72" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>284.13589999999999</v>
       </c>
@@ -2060,13 +2274,16 @@
         <v>1.0745610000000001</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E73" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>291.85019999999997</v>
       </c>
@@ -2077,13 +2294,16 @@
         <v>1.1622809999999999</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E74" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F74" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>291.92360000000002</v>
       </c>
@@ -2094,13 +2314,16 @@
         <v>1.27193</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E75" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F75" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>297.52870000000001</v>
       </c>
@@ -2111,13 +2334,16 @@
         <v>1.3771929999999999</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E76" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F76" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>300.50080000000003</v>
       </c>
@@ -2128,13 +2354,16 @@
         <v>1.473684</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E77" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F77" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>304.32830000000001</v>
       </c>
@@ -2145,13 +2374,16 @@
         <v>1.561404</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E78" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>313.22469999999998</v>
       </c>
@@ -2162,13 +2394,16 @@
         <v>1.6535089999999999</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E79" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F79" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>316.72730000000001</v>
       </c>
@@ -2179,13 +2414,16 @@
         <v>1.767544</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E80" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>320.3297</v>
       </c>
@@ -2196,13 +2434,16 @@
         <v>1.8640350000000001</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E81" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F81" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>324.05040000000002</v>
       </c>
@@ -2213,13 +2454,16 @@
         <v>1.960526</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>602.97720000000004</v>
       </c>
@@ -2230,13 +2474,16 @@
         <v>1.949738</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E83" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>595.97199999999998</v>
       </c>
@@ -2247,13 +2494,16 @@
         <v>1.757039</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E84" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F84" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>588.09109999999998</v>
       </c>
@@ -2264,13 +2514,16 @@
         <v>1.559871</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E85" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>575.83190000000002</v>
       </c>
@@ -2281,13 +2534,16 @@
         <v>1.2730950000000001</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E86" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F86" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>563.57270000000005</v>
       </c>
@@ -2298,13 +2554,16 @@
         <v>1.0625530000000001</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F87" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>551.31349999999998</v>
       </c>
@@ -2315,13 +2574,16 @@
         <v>0.76680800000000005</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F88" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>529.4221</v>
       </c>
@@ -2332,13 +2594,16 @@
         <v>0.57886000000000004</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F89" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>521.5412</v>
       </c>
@@ -2349,13 +2614,16 @@
         <v>0.48483100000000001</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E90" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F90" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>509.28199999999998</v>
       </c>
@@ -2366,13 +2634,16 @@
         <v>0.37742799999999999</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E91" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>499.6497</v>
       </c>
@@ -2383,13 +2654,16 @@
         <v>0.29239900000000002</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F92" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>504.90370000000001</v>
       </c>
@@ -2400,13 +2674,16 @@
         <v>0.189165</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E93" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F93" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>481.26089999999999</v>
       </c>
@@ -2417,13 +2694,16 @@
         <v>9.9903000000000006E-2</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E94" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F94" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>478.63400000000001</v>
       </c>
@@ -2434,13 +2714,16 @@
         <v>5.0623000000000001E-2</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E95" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F95" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>469.87740000000002</v>
       </c>
@@ -2451,13 +2734,16 @@
         <v>1.0421E-2</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E96" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F96" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>332.65069999999997</v>
       </c>
@@ -2468,13 +2754,16 @@
         <v>1.951754</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E97" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F97" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>314.83120000000002</v>
       </c>
@@ -2485,13 +2774,16 @@
         <v>1.557018</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E98" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F98" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>290.459</v>
       </c>
@@ -2502,13 +2794,16 @@
         <v>1.0657890000000001</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F99" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>256.01949999999999</v>
       </c>
@@ -2519,13 +2814,16 @@
         <v>0.58333299999999999</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E100" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F100" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>274.83769999999998</v>
       </c>
@@ -2536,13 +2834,16 @@
         <v>0.78508800000000001</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F101" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>227.0642</v>
       </c>
@@ -2553,13 +2854,16 @@
         <v>0.30263200000000001</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E102" s="4">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F102" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>310.71280000000002</v>
       </c>
@@ -2570,13 +2874,16 @@
         <v>1.950083639</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E103" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F103" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>308.08580000000001</v>
       </c>
@@ -2587,13 +2894,16 @@
         <v>1.8514760509999999</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E104" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F104" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>299.32920000000001</v>
       </c>
@@ -2604,13 +2914,16 @@
         <v>1.752978411</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E105" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F105" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>300.20490000000001</v>
       </c>
@@ -2621,13 +2934,16 @@
         <v>1.6587923010000001</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E106" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F106" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>294.07530000000003</v>
       </c>
@@ -2638,13 +2954,16 @@
         <v>1.56024754</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E107" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F107" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>294.07530000000003</v>
       </c>
@@ -2655,13 +2974,16 @@
         <v>1.4571085260000001</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E108" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>287.94569999999999</v>
       </c>
@@ -2672,13 +2994,16 @@
         <v>1.3720166810000001</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E109" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F109" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>285.31869999999998</v>
       </c>
@@ -2689,13 +3014,16 @@
         <v>1.277893398</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E110" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F110" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>286.19439999999997</v>
       </c>
@@ -2706,13 +3034,16 @@
         <v>1.161285763</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E111" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F111" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>279.1891</v>
       </c>
@@ -2723,13 +3054,16 @@
         <v>1.0672410139999999</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E112" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F112" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>265.17860000000002</v>
       </c>
@@ -2740,13 +3074,16 @@
         <v>0.96883761499999999</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E113" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F113" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>260.80040000000002</v>
       </c>
@@ -2757,13 +3094,16 @@
         <v>0.86577713599999995</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E114" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F114" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>250.29249999999999</v>
       </c>
@@ -2774,13 +3114,16 @@
         <v>0.780763824</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E115" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F115" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>245.0385</v>
       </c>
@@ -2791,13 +3134,16 @@
         <v>0.67771905200000004</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E116" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F116" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>241.5359</v>
       </c>
@@ -2808,13 +3154,16 @@
         <v>0.57464286600000003</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E117" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F117" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>231.90369999999999</v>
       </c>
@@ -2825,13 +3174,16 @@
         <v>0.47616093199999998</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E118" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F118" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>227.52539999999999</v>
       </c>
@@ -2842,13 +3194,16 @@
         <v>0.38655336800000001</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E119" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F119" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>219.64449999999999</v>
       </c>
@@ -2859,13 +3214,16 @@
         <v>0.189385313</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E120" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F120" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>217.89320000000001</v>
       </c>
@@ -2876,13 +3234,16 @@
         <v>9.0762018E-2</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E121" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F121" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>211.7636</v>
       </c>
@@ -2893,13 +3254,16 @@
         <v>1.185867E-3</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E122" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F122" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>217.08680000000001</v>
       </c>
@@ -2910,13 +3274,16 @@
         <v>9.2105000000000006E-2</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E123" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F123" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>220.8399</v>
       </c>
@@ -2927,13 +3294,16 @@
         <v>0.20613999999999999</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E124" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F124" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>224.27359999999999</v>
       </c>
@@ -2944,13 +3314,16 @@
         <v>0.31140400000000001</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E125" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F125" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>227.07939999999999</v>
       </c>
@@ -2961,13 +3334,16 @@
         <v>0.39912300000000001</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E126" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F126" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>228.9171</v>
       </c>
@@ -2978,13 +3354,16 @@
         <v>0.504386</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E127" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F127" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>239.53129999999999</v>
       </c>
@@ -2995,13 +3374,16 @@
         <v>0.58771899999999999</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E128" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F128" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>243.07300000000001</v>
       </c>
@@ -3012,13 +3394,16 @@
         <v>0.69298199999999999</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E129" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F129" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>247.63480000000001</v>
       </c>
@@ -3029,13 +3414,16 @@
         <v>0.79386000000000001</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E130" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F130" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>257.70420000000001</v>
       </c>
@@ -3046,13 +3434,16 @@
         <v>0.868421</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E131" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F131" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>264.5684</v>
       </c>
@@ -3063,13 +3454,16 @@
         <v>0.96929799999999999</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E132" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F132" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>278.28449999999998</v>
       </c>
@@ -3080,13 +3474,16 @@
         <v>1.0701750000000001</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F133" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
         <v>284.81110000000001</v>
       </c>
@@ -3097,13 +3494,16 @@
         <v>1.1798249999999999</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E134" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F134" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>284.26139999999998</v>
       </c>
@@ -3114,13 +3514,16 @@
         <v>1.280702</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E135" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F135" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>285.54390000000001</v>
       </c>
@@ -3131,13 +3534,16 @@
         <v>1.3684210000000001</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E136" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F136" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>293.40199999999999</v>
       </c>
@@ -3148,13 +3554,16 @@
         <v>1.460526</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E137" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F137" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>299.09829999999999</v>
       </c>
@@ -3165,13 +3574,16 @@
         <v>1.557018</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E138" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F138" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>300.64</v>
       </c>
@@ -3182,13 +3594,16 @@
         <v>1.6622809999999999</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E139" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F139" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>302.9579</v>
       </c>
@@ -3199,13 +3614,16 @@
         <v>1.763158</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E140" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F140" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>306.89980000000003</v>
       </c>
@@ -3216,13 +3634,16 @@
         <v>1.8684210000000001</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E141" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F141" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>310.17950000000002</v>
       </c>
@@ -3233,13 +3654,16 @@
         <v>1.964912</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E142" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F142" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>206.88409999999999</v>
       </c>
@@ -3250,13 +3674,16 @@
         <v>9.5555000000000001E-2</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E143" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F143" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>210.94640000000001</v>
       </c>
@@ -3267,13 +3694,16 @@
         <v>0.19233800000000001</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E144" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F144" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
         <v>212.99039999999999</v>
       </c>
@@ -3284,13 +3714,16 @@
         <v>0.29347299999999998</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E145" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F145" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>216.27889999999999</v>
       </c>
@@ -3301,13 +3734,16 @@
         <v>0.39874700000000002</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E146" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F146" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>219.58959999999999</v>
       </c>
@@ -3318,13 +3754,16 @@
         <v>0.49136400000000002</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E147" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F147" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>228.81</v>
       </c>
@@ -3335,13 +3774,16 @@
         <v>0.59205099999999999</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E148" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F148" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <v>233.05789999999999</v>
       </c>
@@ -3352,13 +3794,16 @@
         <v>0.68039499999999997</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E149" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F149" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <v>236.9118</v>
       </c>
@@ -3369,13 +3814,16 @@
         <v>0.77720500000000003</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E150" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F150" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>247.77180000000001</v>
       </c>
@@ -3386,13 +3834,16 @@
         <v>0.88625100000000001</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E151" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F151" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="14">
         <v>255.73390000000001</v>
       </c>
@@ -3403,13 +3854,16 @@
         <v>0.97438499999999995</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E152" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F152" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="14">
         <v>269.27550000000002</v>
       </c>
@@ -3420,13 +3874,16 @@
         <v>1.079081</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E153" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F153" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>278.03059999999999</v>
       </c>
@@ -3437,13 +3894,16 @@
         <v>1.175627</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E154" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F154" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>277.56630000000001</v>
       </c>
@@ -3454,13 +3914,16 @@
         <v>1.2726999999999999</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E155" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F155" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>277.56630000000001</v>
       </c>
@@ -3471,13 +3934,16 @@
         <v>1.3655269999999999</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E156" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F156" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>285.51299999999998</v>
       </c>
@@ -3488,13 +3954,16 @@
         <v>1.4705649999999999</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E157" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F157" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>291.19130000000001</v>
       </c>
@@ -3505,13 +3974,16 @@
         <v>1.5588569999999999</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E158" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F158" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>291.6671</v>
       </c>
@@ -3522,13 +3994,16 @@
         <v>1.672755</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E159" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F159" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
         <v>291.6671</v>
       </c>
@@ -3539,13 +4014,16 @@
         <v>1.7571429999999999</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E160" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F160" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>300.30029999999999</v>
       </c>
@@ -3556,13 +4034,16 @@
         <v>1.870593</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E161" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F161" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>300.78379999999999</v>
       </c>
@@ -3573,13 +4054,16 @@
         <v>1.9633940000000001</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E162" s="4">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F162" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="15">
         <v>264</v>
       </c>
@@ -3590,13 +4074,16 @@
         <v>0.1</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E163" s="3">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F163" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="15">
         <v>595</v>
       </c>
@@ -3607,13 +4094,16 @@
         <v>0.1</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="E164" s="3">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F164" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="21">
         <v>348.58177740000002</v>
       </c>
@@ -3624,13 +4114,16 @@
         <v>0.105597785</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E165" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F165" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="21">
         <v>360.06019789999999</v>
       </c>
@@ -3641,13 +4134,16 @@
         <v>0.109019175</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F166" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="21">
         <v>362.6109581</v>
       </c>
@@ -3658,13 +4154,16 @@
         <v>0.115861956</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E167" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F167" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="21">
         <v>365.79940820000002</v>
       </c>
@@ -3675,13 +4174,16 @@
         <v>0.119283346</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E168" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F168" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="21">
         <v>387.48086929999999</v>
       </c>
@@ -3692,13 +4194,16 @@
         <v>9.8755005000000007E-2</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E169" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F169" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="21">
         <v>390.66931949999997</v>
       </c>
@@ -3709,13 +4214,16 @@
         <v>0.105597785</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E170" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F170" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="21">
         <v>397.04621980000002</v>
       </c>
@@ -3726,13 +4234,16 @@
         <v>9.8755005000000007E-2</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E171" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F171" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="21">
         <v>421.91613100000001</v>
       </c>
@@ -3743,13 +4254,16 @@
         <v>9.8755005000000007E-2</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E172" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F172" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="21">
         <v>418.72768079999997</v>
       </c>
@@ -3760,13 +4274,16 @@
         <v>9.8755005000000007E-2</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E173" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F173" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="21">
         <v>413.62616059999999</v>
       </c>
@@ -3777,13 +4294,16 @@
         <v>9.8755005000000007E-2</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E174" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F174" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="21">
         <v>420.00306089999998</v>
       </c>
@@ -3794,13 +4314,16 @@
         <v>0.15007585700000001</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F175" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="21">
         <v>417.45230079999999</v>
       </c>
@@ -3811,13 +4334,16 @@
         <v>0.15007585700000001</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E176" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F176" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="21">
         <v>411.71309050000002</v>
       </c>
@@ -3828,13 +4354,16 @@
         <v>0.15007585700000001</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E177" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F177" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="21">
         <v>469.1051933</v>
       </c>
@@ -3845,13 +4374,16 @@
         <v>0.19797531900000001</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E178" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F178" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="21">
         <v>474.2067136</v>
       </c>
@@ -3862,13 +4394,16 @@
         <v>0.20139670900000001</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E179" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F179" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="21">
         <v>477.39516379999998</v>
       </c>
@@ -3879,13 +4414,16 @@
         <v>0.20139670900000001</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E180" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F180" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="21">
         <v>480.58361389999999</v>
       </c>
@@ -3896,13 +4434,16 @@
         <v>0.20139670900000001</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F181" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="21">
         <v>459.5398429</v>
       </c>
@@ -3913,13 +4454,16 @@
         <v>0.27324590199999998</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E182" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F182" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="21">
         <v>463.36598309999999</v>
       </c>
@@ -3930,13 +4474,16 @@
         <v>0.26982451200000002</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E183" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F183" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="21">
         <v>469.74288339999998</v>
       </c>
@@ -3947,13 +4494,16 @@
         <v>0.27324590199999998</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F184" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="21">
         <v>478.67054380000002</v>
       </c>
@@ -3964,13 +4514,16 @@
         <v>0.27324590199999998</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F185" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="21">
         <v>506.72890519999999</v>
       </c>
@@ -3981,13 +4534,16 @@
         <v>0.24929617100000001</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F186" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="21">
         <v>512.46811549999995</v>
       </c>
@@ -3998,13 +4554,16 @@
         <v>0.24929617100000001</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E187" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F187" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="21">
         <v>516.29425570000001</v>
       </c>
@@ -4015,13 +4574,16 @@
         <v>0.25271756099999998</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E188" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F188" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="21">
         <v>536.06264669999996</v>
       </c>
@@ -4032,13 +4594,16 @@
         <v>0.24587478099999999</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E189" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F189" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="21">
         <v>604.49032980000004</v>
       </c>
@@ -4049,13 +4614,16 @@
         <v>0.54581665000000001</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F190" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="21">
         <v>596.51920440000004</v>
       </c>
@@ -4066,13 +4634,16 @@
         <v>0.54819261500000005</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E191" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F191" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="21">
         <v>592.53364169999998</v>
       </c>
@@ -4083,13 +4654,16 @@
         <v>0.54344068499999998</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E192" s="5">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F192" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="24">
         <v>379.08461720000003</v>
       </c>
@@ -4100,13 +4674,16 @@
         <v>0.10151112499999999</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E193" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F193" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="24">
         <v>483.59492799999998</v>
       </c>
@@ -4117,13 +4694,16 @@
         <v>0.25119694300000001</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E194" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F194" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="24">
         <v>470.30971899999997</v>
       </c>
@@ -4134,13 +4714,16 @@
         <v>0.25119694300000001</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E195" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F195" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="24">
         <v>464.55279510000003</v>
       </c>
@@ -4151,13 +4734,16 @@
         <v>0.25119694300000001</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E196" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F196" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="24">
         <v>489.79469219999999</v>
       </c>
@@ -4168,13 +4754,16 @@
         <v>0.25357290900000001</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F197" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="24">
         <v>534.96440270000005</v>
       </c>
@@ -4185,13 +4774,16 @@
         <v>0.50067330799999998</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E198" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F198" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="24">
         <v>528.32179819999999</v>
       </c>
@@ -4202,13 +4794,16 @@
         <v>0.50304927300000002</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E199" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F199" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="24">
         <v>520.35067279999998</v>
       </c>
@@ -4219,13 +4814,16 @@
         <v>0.50067330799999998</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F200" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="24">
         <v>595.19068349999998</v>
       </c>
@@ -4236,13 +4834,16 @@
         <v>1.0043779669999999</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E201" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F201" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="24">
         <v>612.01861489999999</v>
       </c>
@@ -4253,13 +4854,16 @@
         <v>1.0067539329999999</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F202" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="24">
         <v>606.26169100000004</v>
       </c>
@@ -4270,13 +4874,16 @@
         <v>1.002002002</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E203" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F203" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="24">
         <v>632.83210899999995</v>
       </c>
@@ -4287,13 +4894,16 @@
         <v>1.5057066619999999</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E204" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F204" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="24">
         <v>624.4181433</v>
       </c>
@@ -4304,13 +4914,16 @@
         <v>1.5057066619999999</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E205" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F205" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="24">
         <v>633.71778959999995</v>
       </c>
@@ -4321,13 +4934,16 @@
         <v>2.0022834249999999</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E206" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F206" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="24">
         <v>627.0751851</v>
       </c>
@@ -4338,13 +4954,16 @@
         <v>2.0070353559999998</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E207" s="16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F207" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="27">
         <v>666.94214880000004</v>
       </c>
@@ -4355,13 +4974,16 @@
         <v>3.0033783779999998</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E208" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F208" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="27">
         <v>667.58534320000001</v>
       </c>
@@ -4372,13 +4994,16 @@
         <v>2.5093290000000001</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E209" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F209" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="27">
         <v>668.26042710000002</v>
       </c>
@@ -4389,13 +5014,16 @@
         <v>2.4912189050000002</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E210" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F210" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="27">
         <v>665.89763340000002</v>
       </c>
@@ -4406,13 +5034,16 @@
         <v>2.5075179909999998</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E211" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F211" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="27">
         <v>667.92288510000003</v>
       </c>
@@ -4423,13 +5054,16 @@
         <v>2.0004353359999998</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E212" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F212" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="27">
         <v>665.89763340000002</v>
       </c>
@@ -4440,13 +5074,16 @@
         <v>2.0004353359999998</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E213" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F213" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="27">
         <v>664.20992369999999</v>
       </c>
@@ -4457,13 +5094,16 @@
         <v>2.0094903839999998</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E214" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F214" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="27">
         <v>651.72087160000001</v>
       </c>
@@ -4474,13 +5114,16 @@
         <v>2.0076793739999999</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E215" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F215" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="27">
         <v>653.4085814</v>
       </c>
@@ -4491,13 +5134,16 @@
         <v>1.5078407579999999</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E216" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F216" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="27">
         <v>654.08366530000001</v>
       </c>
@@ -4508,13 +5154,16 @@
         <v>1.5078407579999999</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E217" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F217" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="27">
         <v>596.7015341</v>
       </c>
@@ -4525,13 +5174,16 @@
         <v>1.511462777</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E218" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F218" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="27">
         <v>565.98521679999999</v>
       </c>
@@ -4542,13 +5194,16 @@
         <v>1.5078407579999999</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E219" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F219" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="27">
         <v>524.46755719999999</v>
       </c>
@@ -4559,13 +5214,16 @@
         <v>1.502407729</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E220" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F220" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="27">
         <v>666.91338470000005</v>
       </c>
@@ -4576,13 +5234,16 @@
         <v>1.064017671</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E221" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F221" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="27">
         <v>661.83462850000001</v>
       </c>
@@ -4593,13 +5254,16 @@
         <v>1.0535372919999999</v>
       </c>
       <c r="D222" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E222" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F222" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="27">
         <v>662.61597559999996</v>
       </c>
@@ -4610,13 +5274,16 @@
         <v>1.0545853300000001</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E223" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F223" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="27">
         <v>656.75587229999996</v>
       </c>
@@ -4627,13 +5294,16 @@
         <v>1.010567738</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E224" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F224" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="27">
         <v>655.77918850000003</v>
       </c>
@@ -4644,13 +5314,16 @@
         <v>1.0074236240000001</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E225" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F225" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="27">
         <v>654.99784139999997</v>
       </c>
@@ -4661,13 +5334,16 @@
         <v>1.005327549</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E226" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F226" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="27">
         <v>599.23309870000003</v>
       </c>
@@ -4678,13 +5354,16 @@
         <v>0.54196903500000004</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E227" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F227" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="27">
         <v>595.57639429999995</v>
       </c>
@@ -4695,13 +5374,16 @@
         <v>0.54347820999999996</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E228" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F228" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="27">
         <v>590.51326510000001</v>
       </c>
@@ -4712,13 +5394,16 @@
         <v>0.54347820999999996</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E229" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F229" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="27">
         <v>589.10684030000004</v>
       </c>
@@ -4729,13 +5414,16 @@
         <v>0.54498738400000002</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E230" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F230" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="27">
         <v>585.73142080000002</v>
       </c>
@@ -4746,13 +5434,16 @@
         <v>0.54196903500000004</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E231" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F231" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="27">
         <v>585.4501358</v>
       </c>
@@ -4763,13 +5454,16 @@
         <v>0.499712147</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E232" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F232" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="27">
         <v>569.6981783</v>
       </c>
@@ -4780,13 +5474,16 @@
         <v>0.499712147</v>
       </c>
       <c r="D233" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E233" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F233" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="27">
         <v>563.79119419999995</v>
       </c>
@@ -4797,13 +5494,16 @@
         <v>0.50574884499999995</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E234" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F234" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="27">
         <v>562.38476939999998</v>
       </c>
@@ -4814,13 +5514,16 @@
         <v>0.50574884499999995</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E235" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F235" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="27">
         <v>564.07247910000001</v>
       </c>
@@ -4831,13 +5534,16 @@
         <v>0.54951490800000002</v>
       </c>
       <c r="D236" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E236" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F236" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="27">
         <v>555.91521539999997</v>
       </c>
@@ -4848,13 +5554,16 @@
         <v>0.50574884499999995</v>
       </c>
       <c r="D237" s="28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E237" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F237" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="27">
         <v>492.34481520000003</v>
       </c>
@@ -4865,13 +5574,16 @@
         <v>0.25220751800000002</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E238" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F238" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="27">
         <v>478.84313730000002</v>
       </c>
@@ -4882,13 +5594,16 @@
         <v>0.24918916899999999</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E239" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F239" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="27">
         <v>431.0246947</v>
       </c>
@@ -4899,13 +5614,16 @@
         <v>0.26880843900000001</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E240" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F240" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="27">
         <v>429.3369849</v>
       </c>
@@ -4916,13 +5634,16 @@
         <v>0.27182678799999999</v>
       </c>
       <c r="D241" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E241" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F241" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="27">
         <v>423.99257069999999</v>
       </c>
@@ -4933,13 +5654,16 @@
         <v>0.26729926399999998</v>
       </c>
       <c r="D242" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E242" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F242" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="27">
         <v>419.77329639999999</v>
       </c>
@@ -4950,13 +5674,16 @@
         <v>0.27031761300000001</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E243" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F243" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="27">
         <v>416.6791619</v>
       </c>
@@ -4967,13 +5694,16 @@
         <v>0.27031761300000001</v>
       </c>
       <c r="D244" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E244" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F244" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="27">
         <v>387.70681130000003</v>
       </c>
@@ -4984,13 +5714,16 @@
         <v>0.114872633</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E245" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F245" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="27">
         <v>385.45653170000003</v>
       </c>
@@ -5001,13 +5734,16 @@
         <v>0.116381807</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E246" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F246" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="27">
         <v>383.76882189999998</v>
       </c>
@@ -5018,13 +5754,16 @@
         <v>0.116381807</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E247" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F247" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="27">
         <v>381.23725730000001</v>
       </c>
@@ -5035,13 +5774,16 @@
         <v>0.113363458</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E248" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F248" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="27">
         <v>334.54395449999998</v>
       </c>
@@ -5052,13 +5794,16 @@
         <v>0.108835934</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E249" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F249" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="27">
         <v>330.88725010000002</v>
       </c>
@@ -5069,13 +5814,16 @@
         <v>0.110345109</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E250" s="17">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F250" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="30">
         <v>372.98649999999998</v>
       </c>
@@ -5086,13 +5834,16 @@
         <v>0.1</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E251" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F251" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="30">
         <v>399.61070000000001</v>
       </c>
@@ -5103,13 +5854,16 @@
         <v>0.1</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E252" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F252" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="30">
         <v>388.96100000000001</v>
       </c>
@@ -5120,13 +5874,16 @@
         <v>0.1</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E253" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F253" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="30">
         <v>396.94819999999999</v>
       </c>
@@ -5137,13 +5894,16 @@
         <v>0.1</v>
       </c>
       <c r="D254" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E254" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F254" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="30">
         <v>395.17329999999998</v>
       </c>
@@ -5154,13 +5914,16 @@
         <v>0.1</v>
       </c>
       <c r="D255" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E255" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F255" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="30">
         <v>393.39839999999998</v>
       </c>
@@ -5171,13 +5934,16 @@
         <v>0.1</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E256" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F256" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="30">
         <v>398.72320000000002</v>
       </c>
@@ -5188,13 +5954,16 @@
         <v>0.1</v>
       </c>
       <c r="D257" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E257" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F257" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="30">
         <v>443.09679999999997</v>
       </c>
@@ -5205,13 +5974,16 @@
         <v>0.1</v>
       </c>
       <c r="D258" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E258" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F258" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="30">
         <v>526.51930000000004</v>
       </c>
@@ -5222,13 +5994,16 @@
         <v>0.1</v>
       </c>
       <c r="D259" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E259" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F259" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="30">
         <v>531.8442</v>
       </c>
@@ -5239,13 +6014,16 @@
         <v>0.1</v>
       </c>
       <c r="D260" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E260" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F260" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="30">
         <v>491.90789999999998</v>
       </c>
@@ -5256,13 +6034,16 @@
         <v>0.1</v>
       </c>
       <c r="D261" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E261" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F261" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="30">
         <v>541.60640000000001</v>
       </c>
@@ -5273,13 +6054,16 @@
         <v>0.1</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E262" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F262" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="30">
         <v>588.64239999999995</v>
       </c>
@@ -5290,13 +6074,16 @@
         <v>0.1</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E263" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F263" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="30">
         <v>616.15409999999997</v>
       </c>
@@ -5307,13 +6094,16 @@
         <v>0.1</v>
       </c>
       <c r="D264" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E264" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F264" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="30">
         <v>612.60419999999999</v>
       </c>
@@ -5324,13 +6114,16 @@
         <v>0.1</v>
       </c>
       <c r="D265" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E265" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F265" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="30">
         <v>648.99059999999997</v>
       </c>
@@ -5341,13 +6134,16 @@
         <v>0.1</v>
       </c>
       <c r="D266" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E266" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F266" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="30">
         <v>631.24120000000005</v>
       </c>
@@ -5358,13 +6154,16 @@
         <v>0.1</v>
       </c>
       <c r="D267" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E267" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F267" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="30">
         <v>657.86530000000005</v>
       </c>
@@ -5375,13 +6174,16 @@
         <v>0.1</v>
       </c>
       <c r="D268" s="32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E268" s="18">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F268" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="15">
         <v>380.08625660000001</v>
       </c>
@@ -5392,13 +6194,16 @@
         <v>0.1</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E269" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="15">
         <v>367.66163280000001</v>
       </c>
@@ -5409,13 +6214,16 @@
         <v>0.1</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E270" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="15">
         <v>405.82297729999999</v>
       </c>
@@ -5426,13 +6234,16 @@
         <v>0.1</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E271" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="15">
         <v>482.14566619999999</v>
       </c>
@@ -5443,13 +6254,16 @@
         <v>0.1</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E272" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="15">
         <v>491.90787060000002</v>
       </c>
@@ -5460,13 +6274,16 @@
         <v>0.1</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E273" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="15">
         <v>560.24330129999998</v>
       </c>
@@ -5477,13 +6294,16 @@
         <v>0.1</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E274" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="15">
         <v>600.17959210000004</v>
       </c>
@@ -5494,13 +6314,16 @@
         <v>0.1</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E275" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="15">
         <v>591.30486080000003</v>
       </c>
@@ -5511,13 +6334,16 @@
         <v>0.1</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E276" s="3">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="34">
         <v>365.64016629999998</v>
       </c>
@@ -5528,13 +6354,16 @@
         <v>0.1</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E277" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F277" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="34">
         <v>367.4890686</v>
       </c>
@@ -5545,13 +6374,16 @@
         <v>0.1</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E278" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F278" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="34">
         <v>364.40756470000002</v>
       </c>
@@ -5562,13 +6394,16 @@
         <v>0.1</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E279" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F279" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="34">
         <v>332.35992399999998</v>
       </c>
@@ -5579,13 +6414,16 @@
         <v>0.1</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E280" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F280" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="34">
         <v>381.04768580000001</v>
       </c>
@@ -5596,13 +6434,16 @@
         <v>0.1</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E281" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F281" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="34">
         <v>384.12918980000001</v>
       </c>
@@ -5613,13 +6454,16 @@
         <v>0.1</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E282" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F282" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="34">
         <v>384.12918980000001</v>
       </c>
@@ -5630,13 +6474,16 @@
         <v>0.1</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E283" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F283" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="34">
         <v>443.9103657</v>
       </c>
@@ -5647,13 +6494,16 @@
         <v>0.1</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E284" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F284" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="34">
         <v>443.9103657</v>
       </c>
@@ -5664,13 +6514,16 @@
         <v>0.1</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E285" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F285" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="34">
         <v>473.49280320000003</v>
       </c>
@@ -5681,13 +6534,16 @@
         <v>0.1</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E286" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F286" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="34">
         <v>494.4470298</v>
       </c>
@@ -5698,13 +6554,16 @@
         <v>0.1</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E287" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F287" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="34">
         <v>553.61190490000001</v>
       </c>
@@ -5715,13 +6574,16 @@
         <v>0.1</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E288" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F288" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="34">
         <v>564.08901820000006</v>
       </c>
@@ -5732,13 +6594,16 @@
         <v>0.1</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E289" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F289" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="34">
         <v>567.17052209999997</v>
       </c>
@@ -5749,13 +6614,16 @@
         <v>0.1</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E290" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F290" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="34">
         <v>592.43885420000004</v>
       </c>
@@ -5766,13 +6634,16 @@
         <v>0.1</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E291" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F291" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="34">
         <v>610.92787769999995</v>
       </c>
@@ -5783,13 +6654,16 @@
         <v>0.1</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E292" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F292" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="34">
         <v>609.07897530000002</v>
       </c>
@@ -5800,13 +6674,16 @@
         <v>0.1</v>
       </c>
       <c r="D293" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E293" s="5">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F293" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="35">
         <v>406.42</v>
       </c>
@@ -5817,13 +6694,16 @@
         <v>0.1</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E294" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F294" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="35">
         <v>355.42</v>
       </c>
@@ -5834,13 +6714,16 @@
         <v>0.1</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E295" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F295" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="35">
         <v>297.43</v>
       </c>
@@ -5851,13 +6734,16 @@
         <v>0.1</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E296" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F296" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="35">
         <v>296.11</v>
       </c>
@@ -5868,13 +6754,16 @@
         <v>0.1</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E297" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F297" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="35">
         <v>410.48</v>
       </c>
@@ -5885,13 +6774,16 @@
         <v>0.1</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E298" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F298" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="35">
         <v>363.11</v>
       </c>
@@ -5902,13 +6794,16 @@
         <v>0.1</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E299" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F299" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="35">
         <v>314.19</v>
       </c>
@@ -5919,13 +6814,16 @@
         <v>0.1</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E300" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F300" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="35">
         <v>304.08</v>
       </c>
@@ -5936,13 +6834,16 @@
         <v>0.1</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E301" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F301" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="35">
         <v>427.91</v>
       </c>
@@ -5953,13 +6854,16 @@
         <v>0.1</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E302" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F302" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="35">
         <v>353.5</v>
       </c>
@@ -5970,13 +6874,16 @@
         <v>0.1</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E303" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F303" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="35">
         <v>321.8</v>
       </c>
@@ -5987,13 +6894,16 @@
         <v>0.1</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E304" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F304" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="35">
         <v>307.73</v>
       </c>
@@ -6004,13 +6914,16 @@
         <v>0.1</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E305" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F305" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="35">
         <v>430.3</v>
       </c>
@@ -6021,13 +6934,16 @@
         <v>0.1</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E306" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F306" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="35">
         <v>351.92</v>
       </c>
@@ -6038,13 +6954,16 @@
         <v>0.1</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E307" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F307" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="35">
         <v>307.20999999999998</v>
       </c>
@@ -6055,13 +6974,16 @@
         <v>0.1</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E308" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F308" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="35">
         <v>305.39999999999998</v>
       </c>
@@ -6072,13 +6994,16 @@
         <v>0.1</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E309" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F309" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="35">
         <v>452.8</v>
       </c>
@@ -6089,13 +7014,16 @@
         <v>0.1</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E310" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F310" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="35">
         <v>367.68</v>
       </c>
@@ -6106,13 +7034,16 @@
         <v>0.1</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E311" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F311" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="35">
         <v>333.41</v>
       </c>
@@ -6123,13 +7054,16 @@
         <v>0.1</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E312" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F312" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="35">
         <v>311.95999999999998</v>
       </c>
@@ -6140,13 +7074,16 @@
         <v>0.1</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E313" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F313" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="35">
         <v>410.32</v>
       </c>
@@ -6157,13 +7094,16 @@
         <v>0.1</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E314" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F314" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="35">
         <v>356.29</v>
       </c>
@@ -6174,13 +7114,16 @@
         <v>0.1</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E315" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F315" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="35">
         <v>305.63</v>
       </c>
@@ -6191,13 +7134,16 @@
         <v>0.1</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E316" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F316" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="35">
         <v>302.58999999999997</v>
       </c>
@@ -6208,13 +7154,16 @@
         <v>0.1</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E317" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F317" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="35">
         <v>413.47</v>
       </c>
@@ -6225,13 +7174,16 @@
         <v>0.1</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E318" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F318" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="35">
         <v>372.15</v>
       </c>
@@ -6242,13 +7194,16 @@
         <v>0.1</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E319" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F319" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="35">
         <v>322.3</v>
       </c>
@@ -6259,13 +7214,16 @@
         <v>0.1</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E320" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F320" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="35">
         <v>310.77</v>
       </c>
@@ -6276,13 +7234,16 @@
         <v>0.1</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E321" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F321" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="35">
         <v>438.49</v>
       </c>
@@ -6293,13 +7254,16 @@
         <v>0.1</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E322" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F322" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="35">
         <v>354.14</v>
       </c>
@@ -6310,13 +7274,16 @@
         <v>0.1</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E323" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F323" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="35">
         <v>330.61</v>
       </c>
@@ -6327,13 +7294,16 @@
         <v>0.1</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E324" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F324" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="35">
         <v>309.98</v>
       </c>
@@ -6344,13 +7314,16 @@
         <v>0.1</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E325" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F325" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="35">
         <v>432.98</v>
       </c>
@@ -6361,13 +7334,16 @@
         <v>0.1</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E326" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F326" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="35">
         <v>350.04</v>
       </c>
@@ -6378,13 +7354,16 @@
         <v>0.1</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E327" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F327" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="35">
         <v>316.52</v>
       </c>
@@ -6395,13 +7374,16 @@
         <v>0.1</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E328" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F328" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="35">
         <v>311.83999999999997</v>
       </c>
@@ -6412,13 +7394,16 @@
         <v>0.1</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E329" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F329" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="35">
         <v>439</v>
       </c>
@@ -6429,13 +7414,16 @@
         <v>0.1</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E330" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F330" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="35">
         <v>372.02</v>
       </c>
@@ -6446,13 +7434,16 @@
         <v>0.1</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E331" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F331" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="35">
         <v>340</v>
       </c>
@@ -6463,13 +7454,16 @@
         <v>0.1</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E332" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F332" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="35">
         <v>316.2</v>
       </c>
@@ -6480,13 +7474,16 @@
         <v>0.1</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E333" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F333" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="35">
         <v>403.4</v>
       </c>
@@ -6497,13 +7494,16 @@
         <v>0.1</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E334" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F334" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="35">
         <v>354.98</v>
       </c>
@@ -6514,13 +7514,16 @@
         <v>0.1</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E335" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F335" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="35">
         <v>288.12</v>
       </c>
@@ -6531,13 +7534,16 @@
         <v>0.1</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E336" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F336" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="35">
         <v>289.93</v>
       </c>
@@ -6548,13 +7554,16 @@
         <v>0.1</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E337" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F337" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="35">
         <v>413.27</v>
       </c>
@@ -6565,13 +7574,16 @@
         <v>0.1</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E338" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F338" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="35">
         <v>357.87</v>
       </c>
@@ -6582,13 +7594,16 @@
         <v>0.1</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E339" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F339" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="35">
         <v>308.37</v>
       </c>
@@ -6599,13 +7614,16 @@
         <v>0.1</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E340" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F340" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="35">
         <v>299.77999999999997</v>
       </c>
@@ -6616,13 +7634,16 @@
         <v>0.1</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E341" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F341" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="35">
         <v>427.01</v>
       </c>
@@ -6633,13 +7654,16 @@
         <v>0.1</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E342" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F342" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="35">
         <v>354.03</v>
       </c>
@@ -6650,13 +7674,16 @@
         <v>0.1</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E343" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F343" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="35">
         <v>313.51</v>
       </c>
@@ -6667,13 +7694,16 @@
         <v>0.1</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E344" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F344" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="35">
         <v>297.52</v>
       </c>
@@ -6684,13 +7714,16 @@
         <v>0.1</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E345" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F345" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="35">
         <v>432.59</v>
       </c>
@@ -6701,13 +7734,16 @@
         <v>0.1</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E346" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F346" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="35">
         <v>354.38</v>
       </c>
@@ -6718,13 +7754,16 @@
         <v>0.1</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E347" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F347" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="35">
         <v>300.37</v>
       </c>
@@ -6735,13 +7774,16 @@
         <v>0.1</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E348" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F348" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="35">
         <v>299.70999999999998</v>
       </c>
@@ -6752,13 +7794,16 @@
         <v>0.1</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E349" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F349" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="35">
         <v>448.19</v>
       </c>
@@ -6769,13 +7814,16 @@
         <v>0.1</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E350" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F350" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="35">
         <v>361.92</v>
       </c>
@@ -6786,13 +7834,16 @@
         <v>0.1</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E351" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F351" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="35">
         <v>323.7</v>
       </c>
@@ -6803,13 +7854,16 @@
         <v>0.1</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E352" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F352" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="35">
         <v>305.83999999999997</v>
       </c>
@@ -6820,13 +7874,16 @@
         <v>0.1</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E353" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F353" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="35">
         <v>335.17</v>
       </c>
@@ -6837,13 +7894,16 @@
         <v>0.1</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E354" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F354" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="35">
         <v>335.52</v>
       </c>
@@ -6854,13 +7914,16 @@
         <v>0.1</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E355" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F355" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="35">
         <v>327.10000000000002</v>
       </c>
@@ -6871,13 +7934,16 @@
         <v>0.1</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E356" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F356" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="35">
         <v>363.35</v>
       </c>
@@ -6888,13 +7954,16 @@
         <v>0.1</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E357" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F357" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="35">
         <v>359.43</v>
       </c>
@@ -6905,13 +7974,16 @@
         <v>0.1</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E358" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F358" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="35">
         <v>350.82</v>
       </c>
@@ -6922,13 +7994,16 @@
         <v>0.1</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E359" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F359" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="35">
         <v>413.33</v>
       </c>
@@ -6939,13 +8014,16 @@
         <v>0.1</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E360" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F360" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="35">
         <v>406.7</v>
       </c>
@@ -6956,13 +8034,16 @@
         <v>0.1</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E361" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F361" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="35">
         <v>391.01</v>
       </c>
@@ -6973,13 +8054,16 @@
         <v>0.1</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E362" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F362" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="35">
         <v>474.23</v>
       </c>
@@ -6990,13 +8074,16 @@
         <v>0.1</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E363" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F363" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="35">
         <v>463.92</v>
       </c>
@@ -7007,13 +8094,16 @@
         <v>0.1</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E364" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F364" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="35">
         <v>464.15</v>
       </c>
@@ -7024,13 +8114,16 @@
         <v>0.1</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E365" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F365" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="35">
         <v>277.29000000000002</v>
       </c>
@@ -7041,13 +8134,16 @@
         <v>0.1</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E366" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F366" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="35">
         <v>271.17</v>
       </c>
@@ -7058,13 +8154,16 @@
         <v>0.1</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E367" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F367" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="35">
         <v>274.01</v>
       </c>
@@ -7075,13 +8174,16 @@
         <v>0.1</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E368" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F368" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="35">
         <v>274.68</v>
       </c>
@@ -7092,13 +8194,16 @@
         <v>0.1</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E369" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F369" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="35">
         <v>322.77</v>
       </c>
@@ -7109,13 +8214,16 @@
         <v>0.1</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E370" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F370" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="35">
         <v>286.24</v>
       </c>
@@ -7126,13 +8234,16 @@
         <v>0.1</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E371" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F371" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="35">
         <v>299.18</v>
       </c>
@@ -7143,13 +8254,16 @@
         <v>0.1</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E372" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F372" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="35">
         <v>333.79</v>
       </c>
@@ -7160,13 +8274,16 @@
         <v>0.1</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E373" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F373" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="35">
         <v>260.89</v>
       </c>
@@ -7177,13 +8294,16 @@
         <v>0.1</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E374" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F374" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="35">
         <v>314.63</v>
       </c>
@@ -7194,13 +8314,16 @@
         <v>0.1</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E375" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F375" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="35">
         <v>373.42</v>
       </c>
@@ -7211,13 +8334,16 @@
         <v>0.1</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E376" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="F376" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="35">
         <v>406.1</v>
       </c>
@@ -7228,54 +8354,65 @@
         <v>0.1</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E377" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F377" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378">
-        <f>MIN(A2:A377)</f>
+        <f t="shared" ref="A378:F378" si="0">MIN(A2:A377)</f>
         <v>206.88409999999999</v>
       </c>
       <c r="B378">
-        <f>MIN(B2:B377)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C378">
-        <f>MIN(C2:C377)</f>
+        <f t="shared" si="0"/>
         <v>1.185867E-3</v>
       </c>
       <c r="D378">
-        <f>MIN(D2:D377)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f>MIN(E2:E377)</f>
+        <f t="shared" si="0"/>
         <v>2.67</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379">
         <f>MAX(A2:A377)</f>
         <v>727.88732394366104</v>
       </c>
       <c r="B379">
-        <f t="shared" ref="B379:E379" si="0">MAX(B2:B377)</f>
+        <f t="shared" ref="B379:E379" si="1">MAX(B2:B377)</f>
         <v>39.841505464321102</v>
       </c>
       <c r="C379">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0033783779999998</v>
       </c>
       <c r="D379">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.5</v>
+      </c>
+      <c r="F379">
+        <f t="shared" ref="F379" si="2">MAX(F2:F377)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
